--- a/biology/Botanique/Statique_des_végétaux/Statique_des_végétaux.xlsx
+++ b/biology/Botanique/Statique_des_végétaux/Statique_des_végétaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Statique_des_v%C3%A9g%C3%A9taux</t>
+          <t>Statique_des_végétaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vegetable Staticks de Stephen Hales
-La Statique des végétaux est un ouvrage de Stephen Hales publié en 1727, sous le nom de Vegetable Staticks. Hales est un ecclésiastique qui s'est adonné avec passion à la botanique, la biologie animale et à la construction de machines ingénieuses. Il est surtout connu pour ses Statical Essays (Essais statiques) dont le premier volume Vegetable staticks[1] (1727), traduit par Buffon en  Statique des végétaux[2] (1735) contient le compte rendu d'un grand nombre d'expériences sur la physiologie des plantes. Le chapitre VI représentant environ la moitié du livre traite d'un sujet crucial pour la chimie : le dégagement de gaz issus de diverses transformations chimiques et du chauffage de divers végétaux, animaux et substances variées. Son dispositif expérimental de la cuve à eau (fig. 38) permettant de récupérer l’air (ie. le gaz) produit dans une réaction va permettre le développement de la chimie pneumatique, c’est-à-dire de l’étude des transformations chimiques au sein de mélanges gazeux.      
+La Statique des végétaux est un ouvrage de Stephen Hales publié en 1727, sous le nom de Vegetable Staticks. Hales est un ecclésiastique qui s'est adonné avec passion à la botanique, la biologie animale et à la construction de machines ingénieuses. Il est surtout connu pour ses Statical Essays (Essais statiques) dont le premier volume Vegetable staticks (1727), traduit par Buffon en  Statique des végétaux (1735) contient le compte rendu d'un grand nombre d'expériences sur la physiologie des plantes. Le chapitre VI représentant environ la moitié du livre traite d'un sujet crucial pour la chimie : le dégagement de gaz issus de diverses transformations chimiques et du chauffage de divers végétaux, animaux et substances variées. Son dispositif expérimental de la cuve à eau (fig. 38) permettant de récupérer l’air (ie. le gaz) produit dans une réaction va permettre le développement de la chimie pneumatique, c’est-à-dire de l’étude des transformations chimiques au sein de mélanges gazeux.      
 Par ses inventions d'appareils ingénieux, Hales permit d'ouvrir de nouveaux champs d'études en physiologie végétale et en chimie.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Statique_des_v%C3%A9g%C3%A9taux</t>
+          <t>Statique_des_végétaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>La méthode de travail</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Buffon ne tarit pas d'éloges dans la préface de sa traduction « La nouveauté des découvertes et de la plupart des idées qui composent cet ouvrage, surprendra sans doute les Physiciens. Je ne connais rien de mieux dans son genre, et le genre par lui-même est excellent ». Il est séduit par l'approche purement empiriste de Hales : « C'est par des Expériences fines, raisonnées et suivies, que l'on force la Nature à découvrir son secret » écrit-il.
 En ce début du XVIIIe siècle, la pensée européenne est en plein bouleversement, le savoir de l'Antiquité perd de son prestige et les sciences modernes émergent  en s'appuyant sur deux piliers : le calcul et l'expérience.
-Hales, membre de la Royal Society et grand admirateur de Newton, est convaincu que c'est par la « philosophie expérimentale » que notre connaissance de la nature progressera[3]. Dès la première page de l'introduction de la Statique des végétaux, il déclare:
+Hales, membre de la Royal Society et grand admirateur de Newton, est convaincu que c'est par la « philosophie expérimentale » que notre connaissance de la nature progressera. Dès la première page de l'introduction de la Statique des végétaux, il déclare:
 Hales a lu avec attention l'Opticks de Newton et le citera à maintes reprises dans son ouvrage. Comme son modèle intellectuel « the great Sir Isaac Newton », il pose des questions auxquelles il essaie de répondre par des expériences originales. Il semble obnubilé par la volonté de mettre en évidence de nouveaux phénomènes qu'il puisse mesurer, dénombrer et quantifier à loisir.
 Hales est un inventeur prodige qui conçoit une foule d’appareils ingénieux pour observer le mouvement de la sève dans les végétaux ou tous les changements de volume de gaz que la nature lui offre. Il semble avoir été pris d'une véritable passion pour l’observation et l’expérimentation. Il multiplie les expériences ingénieuses en donnant des interprétations minimales.
-Hales n'est pas le premier à utiliser la méthode expérimentale mais il semble qu'il n'y ait pas de travail équivalent avant lui pour tenter de comprendre le fonctionnement des plantes[3]. Il fit faire un grand pas dans l'approche physique de la transpiration et de l'absorption.
+Hales n'est pas le premier à utiliser la méthode expérimentale mais il semble qu'il n'y ait pas de travail équivalent avant lui pour tenter de comprendre le fonctionnement des plantes. Il fit faire un grand pas dans l'approche physique de la transpiration et de l'absorption.
 Hales par ses inventions techniques pour récupérer et mesurer les gaz produits lors de réaction, permit d'ouvrir le nouveau champ d'étude de la « chimie pneumatique ». Cette nouvelle activité expérimentale se développera particulièrement en Grande-Bretagne et en France où elle aboutira à la grande reconceptualisation de Lavoisier.
 </t>
         </is>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Statique_des_v%C3%A9g%C3%A9taux</t>
+          <t>Statique_des_végétaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,23 +564,95 @@
           <t>L'ouvrage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans Vegetable staticks, Hales expose toutes les procédures expérimentales qu'il a imaginées pour explorer deux grands domaines: la physiologie des plantes et la production de gaz par une grande variété de substances qu'il fait chauffer pour en recueillir « l'air » c'est-à-dire le gaz qu'elles contiennent.
 En 317 pages, il passe en revue méthodiquement 124 expériences.
-Les expériences de physiologie végétale
-Dans les cinq premiers chapitres, Hales expose ses expériences pour mesurer les pertes en eau des plantes par évaporation, la vitesse de croissance des racines, des pousses et des feuilles, les variations de la puissance d'absorption des racines à différents moments de la journée et de la circulation de la sève.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Statique_des_végétaux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Statique_des_v%C3%A9g%C3%A9taux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>L'ouvrage</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les expériences de physiologie végétale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les cinq premiers chapitres, Hales expose ses expériences pour mesurer les pertes en eau des plantes par évaporation, la vitesse de croissance des racines, des pousses et des feuilles, les variations de la puissance d'absorption des racines à différents moments de la journée et de la circulation de la sève.
 Le chapitre VII, le dernier de l'ouvrage, est consacré à la façon qu'il comprend la croissance des plantes.
-Hale démontre et c'est une de ses découvertes les plus importantes[3], que la théorie selon laquelle la sève circule dans les plantes comme le sang dans le corps, est fausse. La sève en effet ne circule pas en circuit fermé comme William Harvey l'avait montré un siècle plus tôt pour le sang. Il montre à travers une série d'expériences très ingénieuses, que la sève, dans les conditions normales, montait, qu'elle ne descendait pas.
+Hale démontre et c'est une de ses découvertes les plus importantes, que la théorie selon laquelle la sève circule dans les plantes comme le sang dans le corps, est fausse. La sève en effet ne circule pas en circuit fermé comme William Harvey l'avait montré un siècle plus tôt pour le sang. Il montre à travers une série d'expériences très ingénieuses, que la sève, dans les conditions normales, montait, qu'elle ne descendait pas.
 L'expérience 21 (fig. 10) consiste à disposer une racine coupée dans l’eau d’un petit tuyau, plongé dans une cuve de mercure.
 « La racine tira l’eau avec tant de vigueur, qu’en 6 minutes, le mercure avait monté dans le tuyau d,z à la hauteur z, c’est-à-dire, à 8 pouces.A huit heures le lendemain matin, le mercure avait baissé de deux pouces »
 Dans l'expérience 22 (fig. 11), la branche coupée en i, trempe dans l’eau d’un tube de verre renversé au-dessus d’une cuve x de mercure et eau. Elle «  montre la grande force avec laquelle les branches tirent l’eau » .
 Il mène ainsi de nombreuses expériences sur la physiologie végétale : le mouvement de la sève (chapitre IV) ou « qu’une quantité considérable d’air est tirée par les plantes » (chapitre V).
-Il montre que la transpiration est très dépendante des facteurs climatiques et proportionnelle à la surface foliaire. De plus, il confirme une hypothèse très controversée à l'époque, à savoir que c'est bien le sol qui est le réservoir d'eau pour la plante[3].
-Les expériences de « l'Analyse de l'air » (chap. VI)
-Le chapitre VI présente de nombreuses expériences pour mesurer les volumes des gaz produits ou absorbés par différents organes des plantes ou lors de différentes réactions, distillations, fermentations.
+Il montre que la transpiration est très dépendante des facteurs climatiques et proportionnelle à la surface foliaire. De plus, il confirme une hypothèse très controversée à l'époque, à savoir que c'est bien le sol qui est le réservoir d'eau pour la plante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Statique_des_végétaux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Statique_des_v%C3%A9g%C3%A9taux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>L'ouvrage</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les expériences de « l'Analyse de l'air » (chap. VI)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapitre VI présente de nombreuses expériences pour mesurer les volumes des gaz produits ou absorbés par différents organes des plantes ou lors de différentes réactions, distillations, fermentations.
 Hales ne parle jamais de « gaz », terme introduit par van Helmont en 1670 mais qui ne commencera à être utilisé qu'à partir du milieu du XVIIIe siècle en France. À cette époque en Grande-Bretagne, on ne connaissait qu’un seul type de gaz nommé « air », distingué toutefois de la vapeur d’eau ou d’autres « vapeurs » blanches ou colorées. L'air conserve son élasticité quand on le refroidit ou le chauffe  alors que les vapeurs d'eau se condensent quand on les refroidit.
-Hales, avec les chimistes britanniques, Boyle, Black, Cavendish et Priestley, sont les créateurs de la chimie pneumatique. Tous ont utilisé le terme air prêtant pourtant énormément à confusion[4]. L'air commun était traditionnellement un élément premier, un corps simple d'après la théorie des Quatre éléments. On distinguait différents genres d'air (fixe, inflammable...) qui était de l'air atmosphérique avec différents degrés de pureté.
+Hales, avec les chimistes britanniques, Boyle, Black, Cavendish et Priestley, sont les créateurs de la chimie pneumatique. Tous ont utilisé le terme air prêtant pourtant énormément à confusion. L'air commun était traditionnellement un élément premier, un corps simple d'après la théorie des Quatre éléments. On distinguait différents genres d'air (fixe, inflammable...) qui était de l'air atmosphérique avec différents degrés de pureté.
 Plutôt que d'une production d'air lors d'une réaction, Hales parle de « la grande quantité d’air qui est contenue dans les substances animales, végétales ou minérales » (titre du chap. VI). Il s'agit pour lui, d'une libération d'un air préalablement existant, préalablement fixé à l'intérieur, comme il indique dans la préface
 C'est nous qui mettons en gras air fixe pour souligner l'emploi de ce nouveau terme.
 L'appareil de la figure 33 est conçu pour mesurer la quantité de gaz qui est produit par un corps « distillé »[n 1]. On dispose la substance à étudier dans une petite cornue r (une retorte), débouchant sur un récipient à long col (un matras) de grande capacité et percé au fond. Lorsqu’on enfonce ce dernier dans une cuvette d’eau x, l’eau entre en force dans le matras jusqu’à z. On redresse le matras et on l'ajuste à la cornue. La variation du niveau de l’eau dans le matras montre quelle quantité d’air est produite ou consommée lors de la distillation.
@@ -585,7 +671,7 @@
 En bon physicien, connaissant la loi de Boyle-Mariotte (P.V=cste), il en déduit logiquement
 La deuxième étape de son raisonnement, est une hypothèse qui pourtant n'a rien d'une conclusion aussi raisonnable que ce qu'il annonce. L'air selon lui, peut connaître divers états : un état élastique, obéissant à la loi de Boyle-Mariotte et un état fixe n'y obéissant pas.
 Comme nous avons pu l'entrevoir, ces airs fixés dans les substances pouvaient être des espèces chimiques de nature très diverse.
-Dans les décennies suivantes, Joseph Black va s'attacher à caractériser précisément l'air fixé dans la craie et libéré par la calcination[n 2] qu'il appellera air fixe, renommé par Lavoisier et ses collaborateurs gaz acide carbonique[5] [CO2].
+Dans les décennies suivantes, Joseph Black va s'attacher à caractériser précisément l'air fixé dans la craie et libéré par la calcination[n 2] qu'il appellera air fixe, renommé par Lavoisier et ses collaborateurs gaz acide carbonique [CO2].
 Une des choses qui impressionna le plus Buffon, c'est l'étude de la Pierre de la Vessie (calculs rénaux ou lithiase urinaire).
 Hales indique : « Je distillai une de ces pierres tirée de la vessie dans la retorte de fer (fig. 38). Elle pesait 230 grains...il en sortit avec vivacité dans la distillation 516 pouces cubiques d'air élastique, c'est-à-dire, 645 fois le volume de la pierre » (p.167). Les calculs rénaux sont composés d'oxalate de calcium dihydraté.
 Le naturaliste Buffon ne cache pas son enthousiasme pour cette expérience : « Aurions nous pu penser que certains corps, comme la Pierre de la Vessie et le Tartre ne sont pour plus de deux tiers que de l'air solide &amp; métamorphosé ? »
